--- a/data/metadata/mapping-entidad-singular.xlsx
+++ b/data/metadata/mapping-entidad-singular.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3128" uniqueCount="3128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3122" uniqueCount="3122">
   <si>
     <t>500670006 - Marivella</t>
   </si>
@@ -9377,24 +9377,6 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/entidad-singular/502890001-villanueva-de-jiloca</t>
-  </si>
-  <si>
-    <t>220990012 - Espartal (El)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/entidad-singular/220990012-espartal-el</t>
-  </si>
-  <si>
-    <t>222470005 - Montfalcó</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/entidad-singular/222470005-montfalco</t>
-  </si>
-  <si>
-    <t>220990011 - Clamor de Rafales (La)</t>
-  </si>
-  <si>
-    <t>http://opendata.aragon.es/kos/iaest/entidad-singular/220990011-clamor-de-rafales-la</t>
   </si>
 </sst>
 </file>
@@ -9422,20 +9404,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9445,23 +9432,16 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="49.43"/>
-    <col customWidth="1" min="2" max="2" width="66.71"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -21949,30 +21929,6 @@
       </c>
       <c r="B1561" s="2" t="s">
         <v>3121</v>
-      </c>
-    </row>
-    <row r="1562">
-      <c r="A1562" s="1" t="s">
-        <v>3122</v>
-      </c>
-      <c r="B1562" s="2" t="s">
-        <v>3123</v>
-      </c>
-    </row>
-    <row r="1563">
-      <c r="A1563" s="1" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B1563" s="2" t="s">
-        <v>3125</v>
-      </c>
-    </row>
-    <row r="1564">
-      <c r="A1564" s="1" t="s">
-        <v>3126</v>
-      </c>
-      <c r="B1564" s="2" t="s">
-        <v>3127</v>
       </c>
     </row>
   </sheetData>
@@ -23538,10 +23494,7 @@
     <hyperlink r:id="rId1559" ref="B1559"/>
     <hyperlink r:id="rId1560" ref="B1560"/>
     <hyperlink r:id="rId1561" ref="B1561"/>
-    <hyperlink r:id="rId1562" ref="B1562"/>
-    <hyperlink r:id="rId1563" ref="B1563"/>
-    <hyperlink r:id="rId1564" ref="B1564"/>
   </hyperlinks>
-  <drawing r:id="rId1565"/>
+  <drawing r:id="rId1562"/>
 </worksheet>
 </file>